--- a/0Docs/ModeloRelacional.xlsx
+++ b/0Docs/ModeloRelacional.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Universidad Autonoma de Nuevo León\FCFM\7 sem - LMAD\Programación Web de capa Intermedia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\UNIkart\0Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF6C99-3CD2-4F44-A2F3-26701FC5DC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760DE831-C6AF-4435-B4B8-149B0C2D303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1035" windowWidth="12765" windowHeight="13695" xr2:uid="{7B478D59-16C7-4EA7-8193-EFBFD6099C8F}"/>
+    <workbookView xWindow="10710" yWindow="270" windowWidth="17940" windowHeight="14970" xr2:uid="{7B478D59-16C7-4EA7-8193-EFBFD6099C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
